--- a/InputFiles/CDS/TC01_CDS_phs002504_Gender_Male.xlsx
+++ b/InputFiles/CDS/TC01_CDS_phs002504_Gender_Male.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-06-21-2024/Commons_Automation/InputFiles/CDS/phs002504/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6321DE6-DFD4-034F-A14D-0F34C49F21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989CF77-2C3C-6940-BA4D-A22EFBB57DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48840" yWindow="1640" windowWidth="30240" windowHeight="17820" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-37360" yWindow="-2980" windowWidth="30240" windowHeight="17820" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,45 +85,6 @@
 ORDER BY 
     smp.sample_id  ASC
 LIMIT 100</t>
-  </si>
-  <si>
-    <t>SELECT
-    f1.file_name AS "File Name",
-    s.study_name AS "Study Name",
-    s.phs_accession AS "Accession",
-    sp.participant_id AS "Participant Id",
-    COALESCE((
-        SELECT
-            REPLACE(GROUP_CONCAT(CASE WHEN rn &lt;= 5 THEN smp.sample_id ELSE NULL END, ', '), ', , ', ', ') ||
-            CASE WHEN MAX(rn) &gt; 5 THEN ', ...' ELSE '' END
-        FROM (
-            SELECT
-                smp.sample_id,
-                ROW_NUMBER() OVER (ORDER BY smp.sample_id) AS rn
-            FROM df_sample smp
-            WHERE smp."participant.study_participant_id" = sp.study_participant_id
-        ) smp
-    ), '') AS "Sample Id",
-    f1.file_type AS "File Type"
-FROM 
-    df_study s
-INNER JOIN 
-    df_participant sp ON sp.study_phs_accession = s.phs_accession
-INNER JOIN  
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-INNER JOIN 
-    df_file f1 ON f1."sample.sample_id" = smp.sample_id
-WHERE 
-    s.phs_accession = 'phs002504' AND sp.gender = 'Male'
-GROUP BY
-    f1.file_name,
-    s.study_name,
-    s.phs_accession,
-    sp.participant_id,
-    f1.file_type
-ORDER BY 
-    f1.file_name ASC
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT
@@ -199,6 +160,45 @@
     study_name,
     phs_accession,
     gender
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    f1.file_name AS "File Name",
+    s.study_name AS "Study Name",
+    s.phs_accession AS "Accession",
+    sp.participant_id AS "Participant Id",
+    COALESCE((
+        SELECT
+            REPLACE(GROUP_CONCAT(CASE WHEN rn &lt;= 5 THEN smp.sample_id ELSE NULL END, ', '), ', , ', ', ') ||
+            CASE WHEN MAX(rn) &gt; 5 THEN ', ...' ELSE '' END
+        FROM (
+            SELECT
+                smp.sample_id,
+                ROW_NUMBER() OVER (ORDER BY smp.sample_id) AS rn
+            FROM df_sample smp
+            WHERE smp."participant.study_participant_id" = sp.study_participant_id
+        ) smp
+    ), '') AS "Sample Id",
+    f1.file_type AS "File Type"
+FROM 
+    df_study s
+INNER JOIN 
+    df_participant sp ON sp.study_phs_accession = s.phs_accession
+INNER JOIN  
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+INNER JOIN 
+    df_file f1 ON f1."sample.sample_id" = smp.sample_id
+WHERE 
+    s.phs_accession = 'phs002504' AND sp.gender = 'Male'
+GROUP BY
+    f1.file_name,
+    s.study_name,
+    s.phs_accession,
+    sp.participant_id,
+    f1.file_type
+ORDER BY 
+    f1.file_name ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,11 +644,11 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -661,7 +661,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
@@ -670,8 +670,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
